--- a/Assets/Spreadsheets/Stages.xlsx
+++ b/Assets/Spreadsheets/Stages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>HPMultiplyer</t>
+  </si>
+  <si>
+    <t>ItemDrops</t>
   </si>
   <si>
     <t>Background</t>
@@ -349,13 +352,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>10.0</v>
@@ -371,6 +377,9 @@
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="3">
@@ -378,7 +387,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>10.0</v>
@@ -394,6 +403,9 @@
       </c>
       <c r="G3" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="4">
@@ -401,7 +413,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>10.0</v>
@@ -417,6 +429,9 @@
       </c>
       <c r="G4" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +439,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>20.0</v>
@@ -440,6 +455,9 @@
       </c>
       <c r="G5" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="6">
@@ -447,7 +465,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>20.0</v>
@@ -463,6 +481,9 @@
       </c>
       <c r="G6" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="7">
@@ -470,7 +491,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>20.0</v>
@@ -486,6 +507,9 @@
       </c>
       <c r="G7" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +517,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>30.0</v>
@@ -509,6 +533,9 @@
       </c>
       <c r="G8" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="9">
@@ -516,7 +543,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>30.0</v>
@@ -532,6 +559,9 @@
       </c>
       <c r="G9" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="10">
@@ -539,7 +569,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>30.0</v>
@@ -555,6 +585,9 @@
       </c>
       <c r="G10" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="11">
@@ -562,7 +595,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>100.0</v>
@@ -578,6 +611,9 @@
       </c>
       <c r="G11" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>100006.0</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +621,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>40.0</v>
@@ -601,6 +637,9 @@
       </c>
       <c r="G12" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="13">
@@ -608,7 +647,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>40.0</v>
@@ -624,6 +663,9 @@
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="14">
@@ -631,7 +673,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>40.0</v>
@@ -647,6 +689,9 @@
       </c>
       <c r="G14" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="15">
@@ -654,7 +699,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>50.0</v>
@@ -670,6 +715,9 @@
       </c>
       <c r="G15" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="16">
@@ -677,7 +725,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>50.0</v>
@@ -693,6 +741,9 @@
       </c>
       <c r="G16" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="17">
@@ -700,7 +751,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>50.0</v>
@@ -716,6 +767,9 @@
       </c>
       <c r="G17" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +777,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1">
         <v>60.0</v>
@@ -739,6 +793,9 @@
       </c>
       <c r="G18" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="19">
@@ -746,7 +803,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
         <v>60.0</v>
@@ -762,6 +819,9 @@
       </c>
       <c r="G19" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="20">
@@ -769,7 +829,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1">
         <v>60.0</v>
@@ -785,6 +845,9 @@
       </c>
       <c r="G20" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="21">
@@ -792,7 +855,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>200.0</v>
@@ -808,6 +871,9 @@
       </c>
       <c r="G21" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>100007.0</v>
       </c>
     </row>
     <row r="22">
@@ -815,7 +881,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>70.0</v>
@@ -831,6 +897,9 @@
       </c>
       <c r="G22" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +907,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
         <v>70.0</v>
@@ -854,6 +923,9 @@
       </c>
       <c r="G23" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="24">
@@ -861,7 +933,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
         <v>70.0</v>
@@ -877,6 +949,9 @@
       </c>
       <c r="G24" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +959,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>80.0</v>
@@ -900,6 +975,9 @@
       </c>
       <c r="G25" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="26">
@@ -907,7 +985,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>80.0</v>
@@ -923,6 +1001,9 @@
       </c>
       <c r="G26" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="27">
@@ -930,7 +1011,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
         <v>80.0</v>
@@ -946,6 +1027,9 @@
       </c>
       <c r="G27" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="28">
@@ -953,7 +1037,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1">
         <v>90.0</v>
@@ -969,6 +1053,9 @@
       </c>
       <c r="G28" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="29">
@@ -976,7 +1063,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>90.0</v>
@@ -992,6 +1079,9 @@
       </c>
       <c r="G29" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="30">
@@ -999,7 +1089,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>90.0</v>
@@ -1015,6 +1105,9 @@
       </c>
       <c r="G30" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="31">
@@ -1022,7 +1115,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>300.0</v>
@@ -1038,6 +1131,9 @@
       </c>
       <c r="G31" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>100008.0</v>
       </c>
     </row>
     <row r="32">
@@ -1045,7 +1141,7 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1">
         <v>100.0</v>
@@ -1061,6 +1157,9 @@
       </c>
       <c r="G32" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="33">
@@ -1068,7 +1167,7 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1">
         <v>100.0</v>
@@ -1084,6 +1183,9 @@
       </c>
       <c r="G33" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="34">
@@ -1091,7 +1193,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1">
         <v>100.0</v>
@@ -1107,6 +1209,9 @@
       </c>
       <c r="G34" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="35">
@@ -1114,7 +1219,7 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1">
         <v>110.0</v>
@@ -1130,6 +1235,9 @@
       </c>
       <c r="G35" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="36">
@@ -1137,7 +1245,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1">
         <v>110.0</v>
@@ -1153,6 +1261,9 @@
       </c>
       <c r="G36" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="37">
@@ -1160,7 +1271,7 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1">
         <v>110.0</v>
@@ -1176,6 +1287,9 @@
       </c>
       <c r="G37" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="38">
@@ -1183,7 +1297,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <v>120.0</v>
@@ -1199,6 +1313,9 @@
       </c>
       <c r="G38" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="39">
@@ -1206,7 +1323,7 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1">
         <v>120.0</v>
@@ -1222,6 +1339,9 @@
       </c>
       <c r="G39" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="40">
@@ -1229,7 +1349,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1">
         <v>120.0</v>
@@ -1245,6 +1365,9 @@
       </c>
       <c r="G40" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1375,7 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1">
         <v>400.0</v>
@@ -1268,6 +1391,9 @@
       </c>
       <c r="G41" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>100009.0</v>
       </c>
     </row>
     <row r="42">
@@ -1275,7 +1401,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1">
         <v>130.0</v>
@@ -1291,6 +1417,9 @@
       </c>
       <c r="G42" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="43">
@@ -1298,7 +1427,7 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" s="1">
         <v>130.0</v>
@@ -1314,6 +1443,9 @@
       </c>
       <c r="G43" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="44">
@@ -1321,7 +1453,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1">
         <v>130.0</v>
@@ -1337,6 +1469,9 @@
       </c>
       <c r="G44" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="45">
@@ -1344,7 +1479,7 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1">
         <v>140.0</v>
@@ -1360,6 +1495,9 @@
       </c>
       <c r="G45" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="46">
@@ -1367,7 +1505,7 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1">
         <v>140.0</v>
@@ -1383,6 +1521,9 @@
       </c>
       <c r="G46" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="47">
@@ -1390,7 +1531,7 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1">
         <v>140.0</v>
@@ -1406,6 +1547,9 @@
       </c>
       <c r="G47" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="48">
@@ -1413,7 +1557,7 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1">
         <v>150.0</v>
@@ -1429,6 +1573,9 @@
       </c>
       <c r="G48" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="49">
@@ -1436,7 +1583,7 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1">
         <v>150.0</v>
@@ -1452,6 +1599,9 @@
       </c>
       <c r="G49" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="50">
@@ -1459,7 +1609,7 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" s="1">
         <v>150.0</v>
@@ -1475,6 +1625,9 @@
       </c>
       <c r="G50" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="51">
@@ -1482,7 +1635,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1">
         <v>500.0</v>
@@ -1498,6 +1651,9 @@
       </c>
       <c r="G51" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>100010.0</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1661,7 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1">
         <v>160.0</v>
@@ -1521,6 +1677,9 @@
       </c>
       <c r="G52" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="53">
@@ -1528,7 +1687,7 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1">
         <v>160.0</v>
@@ -1544,6 +1703,9 @@
       </c>
       <c r="G53" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="54">
@@ -1551,7 +1713,7 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1">
         <v>160.0</v>
@@ -1567,6 +1729,9 @@
       </c>
       <c r="G54" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="55">
@@ -1574,7 +1739,7 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" s="1">
         <v>170.0</v>
@@ -1590,6 +1755,9 @@
       </c>
       <c r="G55" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="56">
@@ -1597,7 +1765,7 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1">
         <v>170.0</v>
@@ -1613,6 +1781,9 @@
       </c>
       <c r="G56" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="57">
@@ -1620,7 +1791,7 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1">
         <v>170.0</v>
@@ -1636,6 +1807,9 @@
       </c>
       <c r="G57" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="58">
@@ -1643,7 +1817,7 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1">
         <v>180.0</v>
@@ -1659,6 +1833,9 @@
       </c>
       <c r="G58" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="59">
@@ -1666,7 +1843,7 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1">
         <v>180.0</v>
@@ -1682,6 +1859,9 @@
       </c>
       <c r="G59" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="60">
@@ -1689,7 +1869,7 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1">
         <v>180.0</v>
@@ -1705,6 +1885,9 @@
       </c>
       <c r="G60" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="61">
@@ -1712,7 +1895,7 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1">
         <v>600.0</v>
@@ -1728,6 +1911,9 @@
       </c>
       <c r="G61" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>100011.0</v>
       </c>
     </row>
     <row r="62">
@@ -1735,7 +1921,7 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1">
         <v>190.0</v>
@@ -1751,6 +1937,9 @@
       </c>
       <c r="G62" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="63">
@@ -1758,7 +1947,7 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1">
         <v>190.0</v>
@@ -1774,6 +1963,9 @@
       </c>
       <c r="G63" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="64">
@@ -1781,7 +1973,7 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
         <v>190.0</v>
@@ -1797,6 +1989,9 @@
       </c>
       <c r="G64" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="65">
@@ -1804,7 +1999,7 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1">
         <v>200.0</v>
@@ -1820,6 +2015,9 @@
       </c>
       <c r="G65" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="66">
@@ -1827,7 +2025,7 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" s="1">
         <v>200.0</v>
@@ -1843,6 +2041,9 @@
       </c>
       <c r="G66" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="67">
@@ -1850,7 +2051,7 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" s="1">
         <v>200.0</v>
@@ -1866,6 +2067,9 @@
       </c>
       <c r="G67" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="68">
@@ -1873,7 +2077,7 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1">
         <v>210.0</v>
@@ -1889,6 +2093,9 @@
       </c>
       <c r="G68" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="69">
@@ -1896,7 +2103,7 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1">
         <v>210.0</v>
@@ -1912,6 +2119,9 @@
       </c>
       <c r="G69" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="70">
@@ -1919,7 +2129,7 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1">
         <v>210.0</v>
@@ -1935,6 +2145,9 @@
       </c>
       <c r="G70" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="71">
@@ -1942,7 +2155,7 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="1">
         <v>700.0</v>
@@ -1958,6 +2171,9 @@
       </c>
       <c r="G71" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>100012.0</v>
       </c>
     </row>
     <row r="72">
@@ -1965,7 +2181,7 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" s="1">
         <v>220.0</v>
@@ -1981,6 +2197,9 @@
       </c>
       <c r="G72" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="73">
@@ -1988,7 +2207,7 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" s="1">
         <v>220.0</v>
@@ -2004,6 +2223,9 @@
       </c>
       <c r="G73" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="74">
@@ -2011,7 +2233,7 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" s="1">
         <v>220.0</v>
@@ -2027,6 +2249,9 @@
       </c>
       <c r="G74" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="75">
@@ -2034,7 +2259,7 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
         <v>230.0</v>
@@ -2050,6 +2275,9 @@
       </c>
       <c r="G75" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="76">
@@ -2057,7 +2285,7 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1">
         <v>230.0</v>
@@ -2073,6 +2301,9 @@
       </c>
       <c r="G76" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="77">
@@ -2080,7 +2311,7 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="1">
         <v>230.0</v>
@@ -2096,6 +2327,9 @@
       </c>
       <c r="G77" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="78">
@@ -2103,7 +2337,7 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78" s="1">
         <v>240.0</v>
@@ -2119,6 +2353,9 @@
       </c>
       <c r="G78" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="79">
@@ -2126,7 +2363,7 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" s="1">
         <v>240.0</v>
@@ -2142,6 +2379,9 @@
       </c>
       <c r="G79" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="80">
@@ -2149,7 +2389,7 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C80" s="1">
         <v>240.0</v>
@@ -2165,6 +2405,9 @@
       </c>
       <c r="G80" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="81">
@@ -2172,7 +2415,7 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C81" s="1">
         <v>800.0</v>
@@ -2188,6 +2431,9 @@
       </c>
       <c r="G81" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>100013.0</v>
       </c>
     </row>
     <row r="82">
@@ -2195,7 +2441,7 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C82" s="1">
         <v>250.0</v>
@@ -2211,6 +2457,9 @@
       </c>
       <c r="G82" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="83">
@@ -2218,7 +2467,7 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C83" s="1">
         <v>250.0</v>
@@ -2234,6 +2483,9 @@
       </c>
       <c r="G83" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="84">
@@ -2241,7 +2493,7 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C84" s="1">
         <v>250.0</v>
@@ -2257,6 +2509,9 @@
       </c>
       <c r="G84" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="85">
@@ -2264,7 +2519,7 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C85" s="1">
         <v>260.0</v>
@@ -2280,6 +2535,9 @@
       </c>
       <c r="G85" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="86">
@@ -2287,7 +2545,7 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C86" s="1">
         <v>260.0</v>
@@ -2303,6 +2561,9 @@
       </c>
       <c r="G86" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="87">
@@ -2310,7 +2571,7 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C87" s="1">
         <v>260.0</v>
@@ -2326,6 +2587,9 @@
       </c>
       <c r="G87" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="88">
@@ -2333,7 +2597,7 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1">
         <v>270.0</v>
@@ -2349,6 +2613,9 @@
       </c>
       <c r="G88" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="89">
@@ -2356,7 +2623,7 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89" s="1">
         <v>270.0</v>
@@ -2372,6 +2639,9 @@
       </c>
       <c r="G89" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="90">
@@ -2379,7 +2649,7 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C90" s="1">
         <v>270.0</v>
@@ -2395,6 +2665,9 @@
       </c>
       <c r="G90" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="91">
@@ -2402,7 +2675,7 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91" s="1">
         <v>900.0</v>
@@ -2418,6 +2691,9 @@
       </c>
       <c r="G91" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>100014.0</v>
       </c>
     </row>
     <row r="92">
@@ -2425,7 +2701,7 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C92" s="1">
         <v>280.0</v>
@@ -2441,6 +2717,9 @@
       </c>
       <c r="G92" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="93">
@@ -2448,7 +2727,7 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1">
         <v>280.0</v>
@@ -2464,6 +2743,9 @@
       </c>
       <c r="G93" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="94">
@@ -2471,7 +2753,7 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1">
         <v>280.0</v>
@@ -2487,6 +2769,9 @@
       </c>
       <c r="G94" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="95">
@@ -2494,7 +2779,7 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1">
         <v>290.0</v>
@@ -2510,6 +2795,9 @@
       </c>
       <c r="G95" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="96">
@@ -2517,7 +2805,7 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" s="1">
         <v>290.0</v>
@@ -2533,6 +2821,9 @@
       </c>
       <c r="G96" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="97">
@@ -2540,7 +2831,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1">
         <v>290.0</v>
@@ -2556,6 +2847,9 @@
       </c>
       <c r="G97" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="98">
@@ -2563,7 +2857,7 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1">
         <v>300.0</v>
@@ -2579,6 +2873,9 @@
       </c>
       <c r="G98" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="99">
@@ -2586,7 +2883,7 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C99" s="1">
         <v>300.0</v>
@@ -2602,6 +2899,9 @@
       </c>
       <c r="G99" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="100">
@@ -2609,7 +2909,7 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C100" s="1">
         <v>300.0</v>
@@ -2625,6 +2925,9 @@
       </c>
       <c r="G100" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>100001.0</v>
       </c>
     </row>
     <row r="101">
@@ -2632,7 +2935,7 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C101" s="1">
         <v>1000.0</v>
@@ -2648,6 +2951,9 @@
       </c>
       <c r="G101" s="1">
         <v>1.0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>100015.0</v>
       </c>
     </row>
   </sheetData>
